--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Eng.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H2">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>152.700621268982</v>
+        <v>60.60295461234078</v>
       </c>
       <c r="R2">
-        <v>1374.305591420838</v>
+        <v>545.426591511067</v>
       </c>
       <c r="S2">
-        <v>0.681804113242128</v>
+        <v>0.3341094039589287</v>
       </c>
       <c r="T2">
-        <v>0.6995898137595234</v>
+        <v>0.3365111305323333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H3">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>36.51809487996167</v>
+        <v>17.76291332276167</v>
       </c>
       <c r="R3">
-        <v>328.662853919655</v>
+        <v>159.866219904855</v>
       </c>
       <c r="S3">
-        <v>0.1630522986089626</v>
+        <v>0.09792849904439314</v>
       </c>
       <c r="T3">
-        <v>0.1673057187561979</v>
+        <v>0.09863245252688013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H4">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>5.410410463849</v>
+        <v>2.696228812303</v>
       </c>
       <c r="R4">
-        <v>48.693694174641</v>
+        <v>24.266059310727</v>
       </c>
       <c r="S4">
-        <v>0.0241573353004413</v>
+        <v>0.01486454591492814</v>
       </c>
       <c r="T4">
-        <v>0.02478750916212256</v>
+        <v>0.01497139886340086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H5">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>16.37904655830317</v>
+        <v>1.8643838530795</v>
       </c>
       <c r="R5">
-        <v>98.274279349819</v>
+        <v>11.186303118477</v>
       </c>
       <c r="S5">
-        <v>0.07313199659328318</v>
+        <v>0.01027851169778112</v>
       </c>
       <c r="T5">
-        <v>0.05002648989924556</v>
+        <v>0.006901598798927795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H6">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>3.745136096924222</v>
+        <v>4.147810743827557</v>
       </c>
       <c r="R6">
-        <v>33.706224872318</v>
+        <v>37.330296694448</v>
       </c>
       <c r="S6">
-        <v>0.01672193062683488</v>
+        <v>0.0228672444143914</v>
       </c>
       <c r="T6">
-        <v>0.01715814279456043</v>
+        <v>0.02303162430888049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H7">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>6.550363356240001</v>
+        <v>65.64052255783244</v>
       </c>
       <c r="R7">
-        <v>58.95327020616001</v>
+        <v>590.764703020492</v>
       </c>
       <c r="S7">
-        <v>0.02924719390399843</v>
+        <v>0.3618819578622344</v>
       </c>
       <c r="T7">
-        <v>0.03001014299985696</v>
+        <v>0.3644833258702425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H8">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
-        <v>1.5665082994</v>
+        <v>19.23944005888667</v>
       </c>
       <c r="R8">
-        <v>14.0985746946</v>
+        <v>173.15496052998</v>
       </c>
       <c r="S8">
-        <v>0.006994416873245583</v>
+        <v>0.1060687204394023</v>
       </c>
       <c r="T8">
-        <v>0.007176874856976146</v>
+        <v>0.1068311894434704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H9">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>0.23208913068</v>
+        <v>2.920350489628</v>
       </c>
       <c r="R9">
-        <v>2.08880217612</v>
+        <v>26.283154406652</v>
       </c>
       <c r="S9">
-        <v>0.001036271644616791</v>
+        <v>0.01610014837860873</v>
       </c>
       <c r="T9">
-        <v>0.001063304067519288</v>
+        <v>0.01621588338558092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H10">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>0.70260818518</v>
+        <v>2.019359140942</v>
       </c>
       <c r="R10">
-        <v>4.21564911108</v>
+        <v>12.116154845652</v>
       </c>
       <c r="S10">
-        <v>0.003137126402449144</v>
+        <v>0.01113290405187204</v>
       </c>
       <c r="T10">
-        <v>0.002145974807136508</v>
+        <v>0.007475288202431608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H11">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>0.1606542399733333</v>
+        <v>4.492593907960889</v>
       </c>
       <c r="R11">
-        <v>1.44588815976</v>
+        <v>40.433345171648</v>
       </c>
       <c r="S11">
-        <v>0.0007173168040401175</v>
+        <v>0.02476806423745996</v>
       </c>
       <c r="T11">
-        <v>0.0007360288968611564</v>
+        <v>0.02494610806785215</v>
       </c>
     </row>
   </sheetData>
